--- a/QuanLyKhoHangLaptop/bin/database/CuaHangExcel.xlsx
+++ b/QuanLyKhoHangLaptop/bin/database/CuaHangExcel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_setup\DoAnJava\QuanLyKhoHangLaptop\src\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7200"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>MaCuaHang</t>
   </si>
@@ -37,6 +42,9 @@
   </si>
   <si>
     <t>55 cách mạng tháng 8, Phường 1, Quận 8, TP HCM</t>
+  </si>
+  <si>
+    <t>0394852401</t>
   </si>
 </sst>
 </file>
@@ -72,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +92,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -131,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +390,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,12 +424,13 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>394852401</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
